--- a/biology/Botanique/Kosteletzkya/Kosteletzkya.xlsx
+++ b/biology/Botanique/Kosteletzkya/Kosteletzkya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kosteletzkya est un genre de plantes de la famille des Malvaceae.
 </t>
@@ -511,12 +523,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (1 août 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (1 août 2017) :
 Kosteletzkya depressa (L.) O.J. Blanchard, Fryxell &amp; Bates
 Kosteletzkya virginica (L.) K. Presl ex Gray
-Selon Catalogue of Life                                   (1 août 2017)[2] :
+Selon Catalogue of Life                                   (1 août 2017) :
 Kosteletzkya adoensis (Hochst. ex A. Rich.) Mast.
 Kosteletzkya batacensis (Blanco) F. Villar
 Kosteletzkya begoniifolia (Ulbr.) Ulbr.
@@ -544,14 +558,14 @@
 Kosteletzkya tubiflora (DC.) O.J. Blanchard &amp; R. McVaugh
 Kosteletzkya velutina Garcke
 Kosteletzkya wetarensis van Borss. Waalk.
-Selon GRIN            (1 août 2017)[3] :
+Selon GRIN            (1 août 2017) :
 Kosteletzkya adoensis (Hochst. ex A. Rich.) Mast.
 Kosteletzkya pentacarpos (L.) Ledeb.
 Kosteletzkya tubiflora (DC.) Blanch. &amp; McVaugh
-Selon ITIS      (1 août 2017)[4] :
+Selon ITIS      (1 août 2017) :
 Kosteletzkya depressa (L.) O.J. Blanch., Fryxell &amp; D.M. Bates
 Kosteletzkya pentacarpos (L.) Ledeb.
-Selon NCBI  (1 août 2017)[5] :
+Selon NCBI  (1 août 2017) :
 Kosteletzkya adoensis
 Kosteletzkya begoniifolia
 Kosteletzkya blanchardii
@@ -572,7 +586,7 @@
 Kosteletzkya tubiflora
 Kosteletzkya velutina
 Kosteletzkya virginica
-Selon The Plant List            (1 août 2017)[6] :
+Selon The Plant List            (1 août 2017) :
 Kosteletzkya adoensis (Hochst. ex A.Rich.) Mast.
 Kosteletzkya althaeifolia (Chapm.) A. Gray ex S. Watson
 Kosteletzkya batacensis (Blanco) Fern.-Vill.
@@ -595,7 +609,7 @@
 Kosteletzkya tubiflora (Moc. &amp; Sessé ex DC.) O.J.Blanch. &amp; McVaugh
 Kosteletzkya velutina Garcke
 Kosteletzkya virginica (L.) C. Presl ex A. Gray
-Selon Tropicos                                           (1 août 2017)[7] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 Kosteletzkya adoensis (Hochst. ex A. Rich.) Mast.
 Kosteletzkya althaeifolia (Chapm.) A. Gray ex S. Watson
 Kosteletzkya asterocarpa Turcz.
@@ -645,7 +659,7 @@
 Kosteletzkya violacea Rose
 Kosteletzkya virginica (L.) C. Presl ex A. Gray
 Kosteletzkya wetarensis Borss. Waalk.
-Selon World Register of Marine Species                               (1 août 2017)[8] :
+Selon World Register of Marine Species                               (1 août 2017) :
 Kosteletzkya depressa (Linnaeus) O. J. Blanchard, Fryxell &amp; D. M. Bates, 1978
 Kosteletzkya virginica (Linnaeus) C. Presl ex A. Gray, 1848</t>
         </is>
